--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="addCustomer" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="openAccountTest" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">first name</t>
   </si>
@@ -44,6 +45,39 @@
   </si>
   <si>
     <t xml:space="preserve">Customer added successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sskfniwenf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdsodvn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slkdnsdnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efsdcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkjdcwse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jnfkjsdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfvlll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdndvs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfevvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
   </si>
 </sst>
 </file>
@@ -144,13 +178,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -177,6 +211,48 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -189,4 +265,36 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">first name</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Potter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupee</t>
   </si>
 </sst>
 </file>
@@ -180,11 +186,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -215,13 +221,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -229,13 +235,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -243,13 +249,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -272,13 +278,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -286,6 +292,14 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="openAccountTest" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="test_suite" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">first name</t>
   </si>
@@ -84,6 +85,27 @@
   </si>
   <si>
     <t xml:space="preserve">Rupee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runmode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddCustomerTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenAccountTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
 </sst>
 </file>
@@ -190,7 +212,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -280,11 +302,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -300,6 +322,65 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t xml:space="preserve">first name</t>
   </si>
@@ -36,6 +36,9 @@
     <t xml:space="preserve">alerttext</t>
   </si>
   <si>
+    <t xml:space="preserve">Runmode</t>
+  </si>
+  <si>
     <t xml:space="preserve">gergerg</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t xml:space="preserve">Customer added successfully</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">sskfniwenf</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
     <t xml:space="preserve">slkdnsdnc</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">efsdcs</t>
   </si>
   <si>
@@ -90,22 +99,13 @@
     <t xml:space="preserve">TCID</t>
   </si>
   <si>
-    <t xml:space="preserve">Runmode</t>
-  </si>
-  <si>
     <t xml:space="preserve">AddCustomerTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">BankManagerLoginTest</t>
   </si>
   <si>
     <t xml:space="preserve">OpenAccountTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
 </sst>
 </file>
@@ -206,13 +206,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -227,61 +227,76 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -306,22 +321,22 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -342,45 +357,45 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
